--- a/biology/Médecine/Andréa_de_Balmann/Andréa_de_Balmann.xlsx
+++ b/biology/Médecine/Andréa_de_Balmann/Andréa_de_Balmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9a_de_Balmann</t>
+          <t>Andréa_de_Balmann</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andréa de Balmann, née le 24 avril 1913 à Makatea et décédée le 6 février 2007 à Pirae, est une médecin polynésienne francaise.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9a_de_Balmann</t>
+          <t>Andréa_de_Balmann</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille et formation
-Louis de Balmann (1881-1952)[1], père d'Andréa de Balmann, travaille à la Compagnie Française des Phosphates de l'Océanie à sa naissance[2]. Sa mère, Augustine Haamoe Lecaill (1887-1918)[1] décède en 1918 des suites de la grippe espagnole[3]. À 11 ans, elle part en France poursuivre ses études et, en 1936, obtient son diplôme de chirurgien-dentiste[3], puis en 1939 celui de docteur en médecine, devenant ainsi la première femme polynésienne à l'obtenir[3],[1].
-À son retour à Tahiti, Andréa de Balmann rejoint le « groupe de Mamao »[2], formé en 1940 en vue d'obtenir le ralliement de la colonie à la France Libre, ce dernier survenant le 2 septembre 1940.
-Carrière médicale
-La carrière médicale d'Andréa de Balmann se poursuit longtemps après la guerre. Directrice de la maternité de l'hôpital Vaiami puis de l'Institut Louis-Malardé, elle prend la tête du dispensaire de Papeete en 1960[3]. Elle suit de nombreux stages tout au long de sa carrière, notamment à Paris, Nouméa et à l'Université de Californie à Berkeley, approfondissant ses connaissances en dermatologie et en pédiatrie[3].
-Andréa de Balmann s'éteint le 6 février 2007 à Pirae, à l'âge de 93 ans.
-Vie privée
-Andréa de Balmann a deux filles dont la médecin Mareva Tourneux[3].
+          <t>Famille et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis de Balmann (1881-1952), père d'Andréa de Balmann, travaille à la Compagnie Française des Phosphates de l'Océanie à sa naissance. Sa mère, Augustine Haamoe Lecaill (1887-1918) décède en 1918 des suites de la grippe espagnole. À 11 ans, elle part en France poursuivre ses études et, en 1936, obtient son diplôme de chirurgien-dentiste, puis en 1939 celui de docteur en médecine, devenant ainsi la première femme polynésienne à l'obtenir,.
+À son retour à Tahiti, Andréa de Balmann rejoint le « groupe de Mamao », formé en 1940 en vue d'obtenir le ralliement de la colonie à la France Libre, ce dernier survenant le 2 septembre 1940.
 </t>
         </is>
       </c>
@@ -531,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9a_de_Balmann</t>
+          <t>Andréa_de_Balmann</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +558,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hommages</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La maternité du Centre hospitalier de la Polynésie française, à Pirae, porte aujourd'hui son nom.
+          <t>Carrière médicale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carrière médicale d'Andréa de Balmann se poursuit longtemps après la guerre. Directrice de la maternité de l'hôpital Vaiami puis de l'Institut Louis-Malardé, elle prend la tête du dispensaire de Papeete en 1960. Elle suit de nombreux stages tout au long de sa carrière, notamment à Paris, Nouméa et à l'Université de Californie à Berkeley, approfondissant ses connaissances en dermatologie et en pédiatrie.
+Andréa de Balmann s'éteint le 6 février 2007 à Pirae, à l'âge de 93 ans.
 </t>
         </is>
       </c>
@@ -562,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andr%C3%A9a_de_Balmann</t>
+          <t>Andréa_de_Balmann</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,14 +596,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andréa de Balmann a deux filles dont la médecin Mareva Tourneux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Andréa_de_Balmann</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9a_de_Balmann</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maternité du Centre hospitalier de la Polynésie française, à Pirae, porte aujourd'hui son nom.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Andréa_de_Balmann</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9a_de_Balmann</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier de la Légion d'honneur (1997) - chevalier en 1977
  Commandeur de l'ordre national du Mérite (1990) - chevalier en 1972, officier en 1981
- Commandeur de l'Ordre de Tahiti Nui (1997)[4]</t>
+ Commandeur de l'Ordre de Tahiti Nui (1997)</t>
         </is>
       </c>
     </row>
